--- a/TestFiles/SchedulingAlgorithmTestScenarios/Scenario 2/ARRAY vIEW FOR SCENARIO 2.xlsx
+++ b/TestFiles/SchedulingAlgorithmTestScenarios/Scenario 2/ARRAY vIEW FOR SCENARIO 2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="95">
   <si>
     <t>coursesToSchedule</t>
   </si>
@@ -60,9 +60,6 @@
     <t>L</t>
   </si>
   <si>
-    <t>FACULTY F NAME</t>
-  </si>
-  <si>
     <t>EMAIL</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>TIME PREFERNECE</t>
   </si>
   <si>
-    <t>TR/12:00</t>
-  </si>
-  <si>
     <t>DATA STRUCTURES FOR SCHEDULING ALGORITHM FOR TEST SCENARIO #2</t>
   </si>
   <si>
@@ -301,6 +295,12 @@
   </si>
   <si>
     <t>STOVALL</t>
+  </si>
+  <si>
+    <t>FACULTY NAME</t>
+  </si>
+  <si>
+    <t>FACULTY  NAME</t>
   </si>
 </sst>
 </file>
@@ -324,14 +324,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -340,6 +332,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -355,7 +356,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -482,8 +483,82 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -494,98 +569,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -595,9 +578,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -623,15 +606,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -650,7 +627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -663,18 +640,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -683,6 +648,18 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -692,14 +669,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1003,48 +980,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN146"/>
+  <dimension ref="A1:R146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="40" width="20.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
+    <col min="4" max="40" width="20.28515625" style="1" customWidth="1"/>
     <col min="41" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-    </row>
-    <row r="2" spans="1:40" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-    </row>
-    <row r="3" spans="1:40" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="1" spans="1:18" s="21" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+    </row>
+    <row r="2" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2">
@@ -1099,86 +1079,64 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="I4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="K4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="M4" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="R4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="4"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="5">
@@ -1193,7 +1151,7 @@
       <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <v>1</v>
       </c>
       <c r="G5" s="5">
@@ -1202,13 +1160,13 @@
       <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="13">
         <v>1</v>
       </c>
       <c r="J5" s="5">
         <v>2</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="13">
         <v>3</v>
       </c>
       <c r="L5" s="5">
@@ -1226,37 +1184,15 @@
       <c r="P5" s="5">
         <v>2</v>
       </c>
-      <c r="Q5" s="24">
-        <v>1</v>
-      </c>
-      <c r="R5" s="15">
-        <v>1</v>
-      </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="6"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="Q5" s="20">
+        <v>1</v>
+      </c>
+      <c r="R5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5">
@@ -1271,7 +1207,7 @@
       <c r="E6" s="5">
         <v>0</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <v>0</v>
       </c>
       <c r="G6" s="5">
@@ -1280,13 +1216,13 @@
       <c r="H6" s="5">
         <v>0</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="13">
         <v>0</v>
       </c>
       <c r="J6" s="5">
         <v>0</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="13">
         <v>0</v>
       </c>
       <c r="L6" s="5">
@@ -1304,37 +1240,15 @@
       <c r="P6" s="5">
         <v>0</v>
       </c>
-      <c r="Q6" s="24">
-        <v>0</v>
-      </c>
-      <c r="R6" s="15">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="6"/>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="Q6" s="20">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5">
@@ -1349,7 +1263,7 @@
       <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>0</v>
       </c>
       <c r="G7" s="5">
@@ -1358,13 +1272,13 @@
       <c r="H7" s="5">
         <v>0</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="13">
         <v>0</v>
       </c>
       <c r="J7" s="5">
         <v>0</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="13">
         <v>1</v>
       </c>
       <c r="L7" s="5">
@@ -1382,37 +1296,15 @@
       <c r="P7" s="5">
         <v>0</v>
       </c>
-      <c r="Q7" s="24">
-        <v>0</v>
-      </c>
-      <c r="R7" s="15">
-        <v>0</v>
-      </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="6"/>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="Q7" s="20">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="5">
@@ -1427,7 +1319,7 @@
       <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <v>1</v>
       </c>
       <c r="G8" s="5">
@@ -1436,13 +1328,13 @@
       <c r="H8" s="5">
         <v>1</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="13">
         <v>1</v>
       </c>
       <c r="J8" s="5">
         <v>2</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="13">
         <v>4</v>
       </c>
       <c r="L8" s="5">
@@ -1460,99 +1352,55 @@
       <c r="P8" s="5">
         <v>2</v>
       </c>
-      <c r="Q8" s="24">
-        <v>1</v>
-      </c>
-      <c r="R8" s="15">
-        <v>1</v>
-      </c>
-      <c r="S8" s="5"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="15"/>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="6"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="Q8" s="20">
+        <v>1</v>
+      </c>
+      <c r="R8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>54</v>
+      <c r="F9" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>42</v>
+      <c r="I9" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="15"/>
+      <c r="K9" s="13"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="15" t="s">
+      <c r="Q9" s="20"/>
+      <c r="R9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15"/>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="6"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="5">
@@ -1567,7 +1415,7 @@
       <c r="E10" s="5">
         <v>3</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="13">
         <v>3</v>
       </c>
       <c r="G10" s="5">
@@ -1576,13 +1424,13 @@
       <c r="H10" s="5">
         <v>3</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="13">
         <v>3</v>
       </c>
       <c r="J10" s="5">
         <v>3</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="13">
         <v>3</v>
       </c>
       <c r="L10" s="5">
@@ -1600,37 +1448,15 @@
       <c r="P10" s="5">
         <v>3</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="20">
         <v>3</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="6">
         <v>3</v>
       </c>
-      <c r="S10" s="5"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="15"/>
-      <c r="AN10" s="6"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="5">
@@ -1645,7 +1471,7 @@
       <c r="E11" s="5">
         <v>40</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <v>40</v>
       </c>
       <c r="G11" s="5">
@@ -1654,13 +1480,13 @@
       <c r="H11" s="5">
         <v>20</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="13">
         <v>20</v>
       </c>
       <c r="J11" s="5">
         <v>40</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="13">
         <v>40</v>
       </c>
       <c r="L11" s="5">
@@ -1678,116 +1504,72 @@
       <c r="P11" s="5">
         <v>40</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="20">
         <v>40</v>
       </c>
-      <c r="R11" s="15">
+      <c r="R11" s="6">
         <v>20</v>
       </c>
-      <c r="S11" s="5"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="15"/>
-      <c r="AL11" s="15"/>
-      <c r="AM11" s="15"/>
-      <c r="AN11" s="6"/>
-    </row>
-    <row r="12" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="R12" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="S12" s="7"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="8"/>
-    </row>
-    <row r="14" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>56</v>
+      <c r="B12" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -1796,45 +1578,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B17" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="B18" s="5">
         <v>25</v>
@@ -1842,11 +1624,11 @@
       <c r="C18" s="5">
         <v>20</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>17</v>
+      <c r="A19" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B19" s="7">
         <v>8</v>
@@ -1854,20 +1636,20 @@
       <c r="C19" s="7">
         <v>8</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>57</v>
+      <c r="A20" s="9"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -1876,928 +1658,928 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="B24" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="B25" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>17</v>
+      <c r="A26" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B26" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="15"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="B31" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="B32" s="5">
         <v>40</v>
       </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="15"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>17</v>
+      <c r="A33" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B33" s="7">
         <v>6</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="15"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="15"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="15"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>74</v>
+      <c r="A34" s="9"/>
+      <c r="B34" s="13"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A35" s="32" t="s">
+        <v>72</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
       </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="15"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="15"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="B38" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="15"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="B39" s="5">
         <v>20</v>
       </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="15"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="13"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>17</v>
+      <c r="A40" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B40" s="7">
         <v>8</v>
       </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="15"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="13"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="15"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="15"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>75</v>
+      <c r="A41" s="9"/>
+      <c r="B41" s="13"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A42" s="32" t="s">
+        <v>73</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
       </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="15"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="13"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="15"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="15"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="B45" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G45" s="9"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G45" s="10"/>
-      <c r="H45" s="15"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="B46" s="5">
         <v>60</v>
       </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="15"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="13"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>17</v>
+      <c r="A47" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B47" s="7">
         <v>10</v>
       </c>
-      <c r="G47" s="10"/>
-      <c r="H47" s="15"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="13"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="15"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="15"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>76</v>
+      <c r="A48" s="9"/>
+      <c r="B48" s="13"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A49" s="32" t="s">
+        <v>74</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
       </c>
-      <c r="G49" s="10"/>
-      <c r="H49" s="15"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="13"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" s="9"/>
+      <c r="H50" s="13"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" s="9"/>
+      <c r="H51" s="13"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G50" s="10"/>
-      <c r="H50" s="15"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G51" s="10"/>
-      <c r="H51" s="15"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="B52" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" s="9"/>
+      <c r="H52" s="13"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G52" s="10"/>
-      <c r="H52" s="15"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="B53" s="5">
         <v>25</v>
       </c>
-      <c r="G53" s="10"/>
-      <c r="H53" s="15"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="13"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>17</v>
+      <c r="A54" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B54" s="7">
         <v>8</v>
       </c>
-      <c r="G54" s="10"/>
-      <c r="H54" s="15"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="13"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="15"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="15"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>77</v>
+      <c r="A55" s="9"/>
+      <c r="B55" s="13"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A56" s="32" t="s">
+        <v>75</v>
       </c>
       <c r="B56" s="2">
         <v>0</v>
       </c>
-      <c r="G56" s="10"/>
-      <c r="H56" s="15"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="13"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G57" s="9"/>
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G58" s="9"/>
+      <c r="H58" s="13"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G57" s="10"/>
-      <c r="H57" s="15"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G58" s="10"/>
-      <c r="H58" s="15"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="B59" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G59" s="9"/>
+      <c r="H59" s="13"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G59" s="10"/>
-      <c r="H59" s="15"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="B60" s="5">
         <v>40</v>
       </c>
-      <c r="G60" s="10"/>
-      <c r="H60" s="15"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="13"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
-        <v>17</v>
+      <c r="A61" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B61" s="7">
         <v>6</v>
       </c>
-      <c r="G61" s="10"/>
-      <c r="H61" s="15"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="13"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="15"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="15"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
-        <v>78</v>
+      <c r="A62" s="9"/>
+      <c r="B62" s="13"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="13"/>
+    </row>
+    <row r="63" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A63" s="32" t="s">
+        <v>76</v>
       </c>
       <c r="B63" s="2">
         <v>0</v>
       </c>
-      <c r="G63" s="10"/>
-      <c r="H63" s="15"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="13"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G64" s="9"/>
+      <c r="H64" s="13"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G65" s="9"/>
+      <c r="H65" s="13"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G64" s="10"/>
-      <c r="H64" s="15"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G65" s="10"/>
-      <c r="H65" s="15"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
+      <c r="B66" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G66" s="9"/>
+      <c r="H66" s="13"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G66" s="10"/>
-      <c r="H66" s="15"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="B67" s="5">
         <v>60</v>
       </c>
-      <c r="G67" s="10"/>
-      <c r="H67" s="15"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="13"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>17</v>
+      <c r="A68" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B68" s="7">
         <v>10</v>
       </c>
-      <c r="G68" s="10"/>
-      <c r="H68" s="15"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="13"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="B69" s="15"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="15"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
-        <v>79</v>
+      <c r="A69" s="9"/>
+      <c r="B69" s="13"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="13"/>
+    </row>
+    <row r="70" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A70" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="B70" s="2">
         <v>0</v>
       </c>
-      <c r="G70" s="10"/>
-      <c r="H70" s="15"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="13"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G71" s="9"/>
+      <c r="H71" s="13"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G72" s="9"/>
+      <c r="H72" s="13"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G71" s="10"/>
-      <c r="H71" s="15"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G72" s="10"/>
-      <c r="H72" s="15"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="B73" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G73" s="9"/>
+      <c r="H73" s="13"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G73" s="10"/>
-      <c r="H73" s="15"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="B74" s="5">
         <v>40</v>
       </c>
-      <c r="G74" s="10"/>
-      <c r="H74" s="15"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="13"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
-        <v>17</v>
+      <c r="A75" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B75" s="7">
         <v>6</v>
       </c>
-      <c r="G75" s="10"/>
-      <c r="H75" s="15"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="13"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="B76" s="15"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="15"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
-        <v>80</v>
+      <c r="A76" s="9"/>
+      <c r="B76" s="13"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="13"/>
+    </row>
+    <row r="77" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A77" s="32" t="s">
+        <v>78</v>
       </c>
       <c r="B77" s="2">
         <v>0</v>
       </c>
-      <c r="G77" s="10"/>
-      <c r="H77" s="15"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="13"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G78" s="9"/>
+      <c r="H78" s="13"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G79" s="9"/>
+      <c r="H79" s="13"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" s="10"/>
-      <c r="H78" s="15"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G79" s="10"/>
-      <c r="H79" s="15"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
+      <c r="B80" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G80" s="9"/>
+      <c r="H80" s="13"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="B80" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G80" s="10"/>
-      <c r="H80" s="15"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="B81" s="5">
         <v>15</v>
       </c>
-      <c r="G81" s="10"/>
-      <c r="H81" s="15"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="13"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
-        <v>17</v>
+      <c r="A82" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B82" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
-      <c r="B83" s="15"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
-        <v>81</v>
+      <c r="A83" s="9"/>
+      <c r="B83" s="13"/>
+    </row>
+    <row r="84" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A84" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="B84" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
+      <c r="B87" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="B87" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="B88" s="5">
         <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
-        <v>17</v>
+      <c r="A89" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B89" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-      <c r="B90" s="15"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
-        <v>82</v>
+      <c r="A90" s="9"/>
+      <c r="B90" s="13"/>
+    </row>
+    <row r="91" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A91" s="32" t="s">
+        <v>80</v>
       </c>
       <c r="B91" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
+      <c r="B94" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="B94" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="B95" s="5">
         <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
-        <v>17</v>
+      <c r="A96" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B96" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
-      <c r="B97" s="15"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
-        <v>83</v>
+      <c r="A97" s="9"/>
+      <c r="B97" s="13"/>
+    </row>
+    <row r="98" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A98" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="B98" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
+      <c r="B101" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="B101" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="B102" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
-        <v>17</v>
+      <c r="A103" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B103" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="10"/>
-      <c r="B104" s="15"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
-        <v>84</v>
+      <c r="A104" s="9"/>
+      <c r="B104" s="13"/>
+    </row>
+    <row r="105" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A105" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="B105" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B106" s="3"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B107" s="5"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B106" s="3"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B107" s="5"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
+      <c r="B108" s="16"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B108" s="18"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
+      <c r="B109" s="5"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B109" s="5"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="B110" s="7"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
-      <c r="B111" s="15"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
-        <v>85</v>
+      <c r="A111" s="9"/>
+      <c r="B111" s="13"/>
+    </row>
+    <row r="112" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A112" s="32" t="s">
+        <v>83</v>
       </c>
       <c r="B112" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
+      <c r="B115" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="B115" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="B116" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
-        <v>17</v>
+      <c r="A117" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B117" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="10"/>
-      <c r="B118" s="15"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
-        <v>86</v>
+      <c r="A118" s="9"/>
+      <c r="B118" s="13"/>
+    </row>
+    <row r="119" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A119" s="32" t="s">
+        <v>84</v>
       </c>
       <c r="B119" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="10" t="s">
+      <c r="B122" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="B122" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="B123" s="5">
         <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
-        <v>17</v>
+      <c r="A124" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B124" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="10"/>
-      <c r="B125" s="15"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="11" t="s">
-        <v>87</v>
+      <c r="A125" s="9"/>
+      <c r="B125" s="13"/>
+    </row>
+    <row r="126" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A126" s="32" t="s">
+        <v>85</v>
       </c>
       <c r="B126" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="10" t="s">
+      <c r="A127" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="10" t="s">
+      <c r="B129" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="B129" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="B130" s="5">
         <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="10" t="s">
-        <v>17</v>
+      <c r="A131" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B131" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="10"/>
-      <c r="B132" s="15"/>
+      <c r="A132" s="9"/>
+      <c r="B132" s="13"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="10"/>
-      <c r="B133" s="15"/>
-    </row>
-    <row r="134" spans="1:6" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
-        <v>18</v>
+      <c r="A133" s="9"/>
+      <c r="B133" s="13"/>
+    </row>
+    <row r="134" spans="1:6" s="2" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="B134" s="2">
         <v>0</v>
@@ -2814,26 +2596,26 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B135" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C135" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D135" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C135" s="30" t="s">
+      <c r="E135" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="D135" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E135" s="30" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B136" s="31">
+        <v>19</v>
+      </c>
+      <c r="B136" s="25">
         <v>30</v>
       </c>
       <c r="C136" s="5">
@@ -2848,9 +2630,9 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B137" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C137" s="5" t="s">
@@ -2865,18 +2647,16 @@
     </row>
     <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" s="26"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="27"/>
+      <c r="E138" s="27"/>
+    </row>
+    <row r="140" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="B138" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C138" s="33"/>
-      <c r="D138" s="33"/>
-      <c r="E138" s="33"/>
-    </row>
-    <row r="140" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="B140" s="2">
         <v>0</v>
@@ -2896,18 +2676,18 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B141" s="12">
+        <v>23</v>
+      </c>
+      <c r="B141" s="10">
         <v>50</v>
       </c>
-      <c r="C141" s="13">
+      <c r="C141" s="11">
         <v>50</v>
       </c>
-      <c r="D141" s="13">
+      <c r="D141" s="11">
         <v>75</v>
       </c>
-      <c r="E141" s="13">
+      <c r="E141" s="11">
         <v>75</v>
       </c>
       <c r="F141" s="4">
@@ -2916,77 +2696,77 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B142" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E142" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F142" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="C142" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D142" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E142" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F142" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B143" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D143" s="18"/>
+      <c r="E143" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D143" s="20"/>
-      <c r="E143" s="15" t="s">
-        <v>65</v>
       </c>
       <c r="F143" s="6"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B144" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C144" s="18"/>
+      <c r="D144" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E144" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="C144" s="20"/>
-      <c r="D144" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E144" s="20" t="s">
-        <v>66</v>
       </c>
       <c r="F144" s="6"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B145" s="14"/>
-      <c r="C145" s="20"/>
-      <c r="D145" s="20">
+        <v>27</v>
+      </c>
+      <c r="B145" s="12"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="18">
         <v>0.625</v>
       </c>
-      <c r="E145" s="15"/>
+      <c r="E145" s="13"/>
       <c r="F145" s="6"/>
     </row>
     <row r="146" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B146" s="16"/>
-      <c r="C146" s="17"/>
-      <c r="D146" s="17"/>
-      <c r="E146" s="17"/>
-      <c r="F146" s="28">
+        <v>28</v>
+      </c>
+      <c r="B146" s="14"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="22">
         <v>0.75</v>
       </c>
     </row>

--- a/TestFiles/SchedulingAlgorithmTestScenarios/Scenario 2/ARRAY vIEW FOR SCENARIO 2.xlsx
+++ b/TestFiles/SchedulingAlgorithmTestScenarios/Scenario 2/ARRAY vIEW FOR SCENARIO 2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="99">
   <si>
     <t>coursesToSchedule</t>
   </si>
@@ -301,13 +301,25 @@
   </si>
   <si>
     <t>FACULTY  NAME</t>
+  </si>
+  <si>
+    <t>CONFLICT TIMES CIS447</t>
+  </si>
+  <si>
+    <t>DAYS-OF-WEEK</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>CONFLICT TIMES MA445</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +359,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -356,7 +376,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -575,12 +595,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -669,13 +715,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -980,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R146"/>
+  <dimension ref="A1:R153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F148" sqref="F148"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,35 +1057,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="21" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2">
@@ -1568,7 +1629,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="31" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="2">
@@ -1648,7 +1709,7 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="31" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="2">
@@ -1702,7 +1763,7 @@
       <c r="B27" s="13"/>
     </row>
     <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="31" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="2">
@@ -1762,7 +1823,7 @@
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="31" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="2">
@@ -1828,7 +1889,7 @@
       <c r="H41" s="13"/>
     </row>
     <row r="42" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="31" t="s">
         <v>73</v>
       </c>
       <c r="B42" s="2">
@@ -1894,7 +1955,7 @@
       <c r="H48" s="13"/>
     </row>
     <row r="49" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="31" t="s">
         <v>74</v>
       </c>
       <c r="B49" s="2">
@@ -1960,7 +2021,7 @@
       <c r="H55" s="13"/>
     </row>
     <row r="56" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="31" t="s">
         <v>75</v>
       </c>
       <c r="B56" s="2">
@@ -2026,7 +2087,7 @@
       <c r="H62" s="13"/>
     </row>
     <row r="63" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="31" t="s">
         <v>76</v>
       </c>
       <c r="B63" s="2">
@@ -2092,7 +2153,7 @@
       <c r="H69" s="13"/>
     </row>
     <row r="70" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A70" s="32" t="s">
+      <c r="A70" s="31" t="s">
         <v>77</v>
       </c>
       <c r="B70" s="2">
@@ -2158,7 +2219,7 @@
       <c r="H76" s="13"/>
     </row>
     <row r="77" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A77" s="32" t="s">
+      <c r="A77" s="31" t="s">
         <v>78</v>
       </c>
       <c r="B77" s="2">
@@ -2220,7 +2281,7 @@
       <c r="B83" s="13"/>
     </row>
     <row r="84" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A84" s="32" t="s">
+      <c r="A84" s="31" t="s">
         <v>79</v>
       </c>
       <c r="B84" s="2">
@@ -2272,7 +2333,7 @@
       <c r="B90" s="13"/>
     </row>
     <row r="91" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A91" s="32" t="s">
+      <c r="A91" s="31" t="s">
         <v>80</v>
       </c>
       <c r="B91" s="2">
@@ -2324,7 +2385,7 @@
       <c r="B97" s="13"/>
     </row>
     <row r="98" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A98" s="32" t="s">
+      <c r="A98" s="31" t="s">
         <v>81</v>
       </c>
       <c r="B98" s="2">
@@ -2376,7 +2437,7 @@
       <c r="B104" s="13"/>
     </row>
     <row r="105" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A105" s="32" t="s">
+      <c r="A105" s="31" t="s">
         <v>82</v>
       </c>
       <c r="B105" s="2">
@@ -2418,7 +2479,7 @@
       <c r="B111" s="13"/>
     </row>
     <row r="112" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A112" s="32" t="s">
+      <c r="A112" s="31" t="s">
         <v>83</v>
       </c>
       <c r="B112" s="2">
@@ -2470,7 +2531,7 @@
       <c r="B118" s="13"/>
     </row>
     <row r="119" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A119" s="32" t="s">
+      <c r="A119" s="31" t="s">
         <v>84</v>
       </c>
       <c r="B119" s="2">
@@ -2522,7 +2583,7 @@
       <c r="B125" s="13"/>
     </row>
     <row r="126" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A126" s="32" t="s">
+      <c r="A126" s="31" t="s">
         <v>85</v>
       </c>
       <c r="B126" s="2">
@@ -2545,7 +2606,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>14</v>
       </c>
@@ -2553,7 +2614,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>15</v>
       </c>
@@ -2561,7 +2622,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>16</v>
       </c>
@@ -2569,204 +2630,252 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="9"/>
       <c r="B132" s="13"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="9"/>
+    <row r="133" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="33" t="s">
+        <v>95</v>
+      </c>
       <c r="B133" s="13"/>
     </row>
-    <row r="134" spans="1:6" s="2" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="31" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B134" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B135" s="37">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="9"/>
+      <c r="B136" s="13"/>
+    </row>
+    <row r="137" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B137" s="13"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B138" s="34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B139" s="35">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="9"/>
+      <c r="B140" s="13"/>
+    </row>
+    <row r="141" spans="1:5" s="2" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B134" s="2">
-        <v>0</v>
-      </c>
-      <c r="C134" s="2">
-        <v>1</v>
-      </c>
-      <c r="D134" s="2">
+      <c r="B141" s="2">
+        <v>0</v>
+      </c>
+      <c r="C141" s="2">
+        <v>1</v>
+      </c>
+      <c r="D141" s="2">
         <v>2</v>
       </c>
-      <c r="E134" s="2">
+      <c r="E141" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B135" s="23" t="s">
+      <c r="B142" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C135" s="24" t="s">
+      <c r="C142" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D135" s="24" t="s">
+      <c r="D142" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E135" s="24" t="s">
+      <c r="E142" s="24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B136" s="25">
+      <c r="B143" s="25">
         <v>30</v>
       </c>
-      <c r="C136" s="5">
+      <c r="C143" s="5">
         <v>45</v>
       </c>
-      <c r="D136" s="5">
+      <c r="D143" s="5">
         <v>20</v>
       </c>
-      <c r="E136" s="5">
+      <c r="E143" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B137" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E137" s="5" t="s">
+      <c r="B144" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E144" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
+    <row r="145" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B138" s="26"/>
-      <c r="C138" s="27"/>
-      <c r="D138" s="27"/>
-      <c r="E138" s="27"/>
-    </row>
-    <row r="140" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="31" t="s">
+      <c r="B145" s="26"/>
+      <c r="C145" s="27"/>
+      <c r="D145" s="27"/>
+      <c r="E145" s="27"/>
+    </row>
+    <row r="147" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A147" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B140" s="2">
-        <v>0</v>
-      </c>
-      <c r="C140" s="2">
-        <v>1</v>
-      </c>
-      <c r="D140" s="2">
+      <c r="B147" s="2">
+        <v>0</v>
+      </c>
+      <c r="C147" s="2">
+        <v>1</v>
+      </c>
+      <c r="D147" s="2">
         <v>2</v>
       </c>
-      <c r="E140" s="2">
+      <c r="E147" s="2">
         <v>3</v>
       </c>
-      <c r="F140" s="2">
+      <c r="F147" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B141" s="10">
+      <c r="B148" s="10">
         <v>50</v>
       </c>
-      <c r="C141" s="11">
+      <c r="C148" s="11">
         <v>50</v>
       </c>
-      <c r="D141" s="11">
+      <c r="D148" s="11">
         <v>75</v>
       </c>
-      <c r="E141" s="11">
+      <c r="E148" s="11">
         <v>75</v>
       </c>
-      <c r="F141" s="4">
+      <c r="F148" s="4">
         <v>165</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B142" s="12" t="s">
+      <c r="B149" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C142" s="13" t="s">
+      <c r="C149" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D142" s="13" t="s">
+      <c r="D149" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E142" s="13" t="s">
+      <c r="E149" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F142" s="6" t="s">
+      <c r="F149" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B143" s="17" t="s">
+      <c r="B150" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C143" s="13" t="s">
+      <c r="C150" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D143" s="18"/>
-      <c r="E143" s="13" t="s">
+      <c r="D150" s="18"/>
+      <c r="E150" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F143" s="6"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="F150" s="6"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B144" s="17" t="s">
+      <c r="B151" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C144" s="18"/>
-      <c r="D144" s="19" t="s">
+      <c r="C151" s="18"/>
+      <c r="D151" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E144" s="18" t="s">
+      <c r="E151" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F144" s="6"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="F151" s="6"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B145" s="12"/>
-      <c r="C145" s="18"/>
-      <c r="D145" s="18">
+      <c r="B152" s="12"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="18">
         <v>0.625</v>
       </c>
-      <c r="E145" s="13"/>
-      <c r="F145" s="6"/>
-    </row>
-    <row r="146" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
+      <c r="E152" s="13"/>
+      <c r="F152" s="6"/>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B146" s="14"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="15"/>
-      <c r="F146" s="22">
+      <c r="B153" s="14"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="22">
         <v>0.75</v>
       </c>
     </row>
